--- a/Expenses (Template).xlsx
+++ b/Expenses (Template).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F3CDB922-1C76-4EDE-A03F-80CFCCB6F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69FD3C17-3880-4123-BF48-48913DAFFC9D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F3CDB922-1C76-4EDE-A03F-80CFCCB6F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418FEB43-4B25-4FB1-8299-44614039E888}"/>
   <bookViews>
-    <workbookView xWindow="2710" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +531,7 @@
     <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,31 +547,26 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A1048576">
+  <conditionalFormatting sqref="A2:A3 A7:A1048576 G1:G3">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>45992</formula>
       <formula>46022</formula>
